--- a/output/output_regtree_pofb.xlsx
+++ b/output/output_regtree_pofb.xlsx
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.234</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2321428571428572</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.303030303030303</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1827309236947791</v>
+        <v>0.1385542168674699</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.217948717948718</v>
+        <v>0.141025641025641</v>
       </c>
     </row>
     <row r="14">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="16">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.112</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2442396313364055</v>
+        <v>0.2764976958525346</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.212</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2630522088353414</v>
+        <v>0.21285140562249</v>
       </c>
     </row>
     <row r="22">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.348</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="24">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.198</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="25">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2428571428571429</v>
+        <v>0.2476190476190476</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="27">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.164</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="29">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2869565217391304</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="30">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.096</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.2764976958525346</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1285140562248996</v>
+        <v>0.1365461847389558</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="35">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.3035714285714285</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1476190476190476</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.141025641025641</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1964285714285714</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.3035714285714285</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1305220883534137</v>
+        <v>0.1526104417670683</v>
       </c>
     </row>
     <row r="44">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3087557603686636</v>
+        <v>0.2672811059907834</v>
       </c>
     </row>
     <row r="47">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.280952380952381</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.271889400921659</v>
+        <v>0.2534562211981567</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2435897435897436</v>
+        <v>0.2115384615384615</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3087557603686636</v>
+        <v>0.2995391705069124</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3391304347826087</v>
+        <v>0.6173913043478261</v>
       </c>
     </row>
     <row r="52">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2396313364055299</v>
+        <v>0.2626728110599078</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.142570281124498</v>
+        <v>0.1405622489959839</v>
       </c>
     </row>
     <row r="55">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.6142857142857143</v>
+        <v>0.5952380952380952</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4538152610441767</v>
+        <v>0.4959839357429719</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1044176706827309</v>
+        <v>0.08634538152610442</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1907630522088354</v>
+        <v>0.1526104417670683</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.119047619047619</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="62">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1858974358974359</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.09565217391304348</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="66">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2628205128205128</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="69">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3652173913043478</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="70">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1047619047619048</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="71">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.191304347826087</v>
+        <v>0.1652173913043478</v>
       </c>
     </row>
     <row r="72">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2371794871794872</v>
+        <v>0.2115384615384615</v>
       </c>
     </row>
   </sheetData>

--- a/output/output_regtree_pofb.xlsx
+++ b/output/output_regtree_pofb.xlsx
@@ -428,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.238</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1385542168674699</v>
+        <v>0.1827309236947791</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="12">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="13">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.141025641025641</v>
+        <v>0.217948717948718</v>
       </c>
     </row>
     <row r="14">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.1217391304347826</v>
       </c>
     </row>
     <row r="16">
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.244</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="19">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2764976958525346</v>
+        <v>0.2442396313364055</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.232</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="21">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.21285140562249</v>
+        <v>0.2630522088353414</v>
       </c>
     </row>
     <row r="22">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="23">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="24">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.28</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="25">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2476190476190476</v>
+        <v>0.2428571428571429</v>
       </c>
     </row>
     <row r="26">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.344</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.156</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="29">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2869565217391304</v>
       </c>
     </row>
     <row r="30">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.102</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="31">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2764976958525346</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="32">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1365461847389558</v>
+        <v>0.1285140562248996</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="35">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3035714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="37">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.1476190476190476</v>
       </c>
     </row>
     <row r="38">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2321428571428572</v>
       </c>
     </row>
     <row r="39">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.141025641025641</v>
       </c>
     </row>
     <row r="40">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="41">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3035714285714285</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="43">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1526104417670683</v>
+        <v>0.1305220883534137</v>
       </c>
     </row>
     <row r="44">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2672811059907834</v>
+        <v>0.3087557603686636</v>
       </c>
     </row>
     <row r="47">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.280952380952381</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2534562211981567</v>
+        <v>0.271889400921659</v>
       </c>
     </row>
     <row r="49">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.2435897435897436</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2995391705069124</v>
+        <v>0.3087557603686636</v>
       </c>
     </row>
     <row r="51">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6173913043478261</v>
+        <v>0.3391304347826087</v>
       </c>
     </row>
     <row r="52">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2626728110599078</v>
+        <v>0.2396313364055299</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1405622489959839</v>
+        <v>0.142570281124498</v>
       </c>
     </row>
     <row r="55">
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5952380952380952</v>
+        <v>0.6142857142857143</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4959839357429719</v>
+        <v>0.4538152610441767</v>
       </c>
     </row>
     <row r="57">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.282051282051282</v>
+        <v>0.2884615384615384</v>
       </c>
     </row>
     <row r="58">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.08634538152610442</v>
+        <v>0.1044176706827309</v>
       </c>
     </row>
     <row r="59">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1526104417670683</v>
+        <v>0.1907630522088354</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="62">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1858974358974359</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0782608695652174</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="66">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.282051282051282</v>
+        <v>0.2628205128205128</v>
       </c>
     </row>
     <row r="68">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1857142857142857</v>
       </c>
     </row>
     <row r="69">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.391304347826087</v>
+        <v>0.3652173913043478</v>
       </c>
     </row>
     <row r="70">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1285714285714286</v>
+        <v>0.1047619047619048</v>
       </c>
     </row>
     <row r="71">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.191304347826087</v>
       </c>
     </row>
     <row r="72">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.2371794871794872</v>
       </c>
     </row>
   </sheetData>
